--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail9 Features.xlsx
@@ -4275,7 +4275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4286,29 +4286,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4329,115 +4327,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4454,72 +4442,66 @@
         <v>5.149137653226226e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.689965930688291</v>
+        <v>3.567550894228216e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.308261154179654</v>
+        <v>2.673803172197428e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.567550894228216e-07</v>
+        <v>0.07143959384932867</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.673803172197428e-06</v>
+        <v>0.405738095447178</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07143959384932867</v>
+        <v>0.1695610093364158</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.405738095447178</v>
+        <v>1.764397827368158</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1695610093364158</v>
+        <v>1.897415861112161</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.712756805517686</v>
+        <v>3.727495070003843</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.897415861112161</v>
+        <v>8.625098609591796e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.727495070003843</v>
+        <v>190727385.015148</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.625098609591796e-16</v>
+        <v>6.050874751681589e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>190727385.015148</v>
+        <v>31.37546548941801</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.050874751681589e-07</v>
+        <v>0.0001110805209499058</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>31.37546548941801</v>
+        <v>8.881667164056967</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001110805209499058</v>
+        <v>1.26525944600485</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.881667164056967</v>
+        <v>0.008762477104600203</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.26525944600485</v>
+        <v>3.135039766899605</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008762477104600203</v>
+        <v>0.9528976696776349</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.135039766899605</v>
+        <v>1.698573808317708</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9528976696776349</v>
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.698573808317708</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.258533010898749</v>
       </c>
     </row>
@@ -4534,72 +4516,66 @@
         <v>4.230710775702099e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.4985584772078674</v>
+        <v>2.762852158675384e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.88638698330133</v>
+        <v>2.676782936601274e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.762852158675384e-07</v>
+        <v>0.05409594913650194</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.676782936601274e-06</v>
+        <v>0.4338901137481901</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05409594913650194</v>
+        <v>0.1909554755462711</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.4338901137481901</v>
+        <v>1.758761120862972</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1909554755462711</v>
+        <v>1.965006419964908</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.70416584144246</v>
+        <v>3.491761565834712</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.965006419964908</v>
+        <v>9.82899385995132e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.491761565834712</v>
+        <v>167906141.4356654</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.82899385995132e-16</v>
+        <v>6.871460479629184e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>167906141.4356654</v>
+        <v>27.7103637446244</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.871460479629184e-07</v>
+        <v>0.0001157096006707307</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>27.7103637446244</v>
+        <v>10.28304356542509</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001157096006707307</v>
+        <v>1.306818243969957</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.28304356542509</v>
+        <v>0.01223524714522681</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.306818243969957</v>
+        <v>3.146106749970656</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01223524714522681</v>
+        <v>0.954638183103054</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.146106749970656</v>
+        <v>1.676187191689237</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.954638183103054</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.676187191689237</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2610109992424836</v>
       </c>
     </row>
@@ -4614,72 +4590,66 @@
         <v>3.800198445686362e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3000068684969405</v>
+        <v>1.950355001990767e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5187558856566654</v>
+        <v>2.678348872001091e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.950355001990767e-07</v>
+        <v>0.02211437025216653</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.678348872001091e-06</v>
+        <v>0.4008300565640374</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02211437025216653</v>
+        <v>0.1608503727223396</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.4008300565640374</v>
+        <v>1.76125434027295</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1608503727223396</v>
+        <v>1.892643448178584</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.707167606980975</v>
+        <v>3.457845772829034</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.892643448178584</v>
+        <v>1.002275205004706e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.457845772829034</v>
+        <v>169555843.7599123</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.002275205004706e-15</v>
+        <v>6.850315332463469e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>169555843.7599123</v>
+        <v>28.81459444080224</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.850315332463469e-07</v>
+        <v>0.0001217284820339752</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>28.81459444080224</v>
+        <v>9.355074851430333</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001217284820339752</v>
+        <v>1.520171674136513</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.355074851430333</v>
+        <v>0.01065336335469851</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.520171674136513</v>
+        <v>3.277989404243376</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01065336335469851</v>
+        <v>0.9540290025522921</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.277989404243376</v>
+        <v>1.680369760854064</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9540290025522921</v>
+        <v>17</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.680369760854064</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2460864478615623</v>
       </c>
     </row>
@@ -4694,72 +4664,66 @@
         <v>3.766717791828288e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3677533151406986</v>
+        <v>1.514158525463662e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.6633136098635131</v>
+        <v>2.678462714973067e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.514158525463662e-07</v>
+        <v>-0.01531103745451808</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.678462714973067e-06</v>
+        <v>0.3029384953068509</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01531103745451808</v>
+        <v>0.09177000938632128</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3029384953068509</v>
+        <v>1.765189612883252</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09177000938632128</v>
+        <v>1.829138239617799</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.708696231152267</v>
+        <v>3.525078817838061</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.829138239617799</v>
+        <v>9.64407458958155e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.525078817838061</v>
+        <v>179507558.5518438</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.64407458958155e-16</v>
+        <v>6.468823702770184e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>179507558.5518438</v>
+        <v>31.0760664236307</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.468823702770184e-07</v>
+        <v>0.0001186453440007613</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>31.0760664236307</v>
+        <v>7.434921981841823</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001186453440007613</v>
+        <v>1.707522113979579</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.434921981841823</v>
+        <v>0.00655848502291829</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.707522113979579</v>
+        <v>3.335496448957698</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00655848502291829</v>
+        <v>0.954150005958761</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.335496448957698</v>
+        <v>1.696158546409515</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.954150005958761</v>
+        <v>30</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.696158546409515</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.230553873580106</v>
       </c>
     </row>
@@ -4774,72 +4738,66 @@
         <v>3.87614379583071e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.313938142794155</v>
+        <v>1.571473436244061e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6710567509849894</v>
+        <v>2.677318679307034e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.571473436244061e-07</v>
+        <v>-0.04155169973977215</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.677318679307034e-06</v>
+        <v>0.2221757439352119</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04155169973977215</v>
+        <v>0.05102090753100992</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2221757439352119</v>
+        <v>1.763160389163158</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05102090753100992</v>
+        <v>1.743486527578012</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.707747090844229</v>
+        <v>3.728076617887225</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.743486527578012</v>
+        <v>8.622407937089487e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.728076617887225</v>
+        <v>199021117.0852893</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.622407937089487e-16</v>
+        <v>5.827672026663533e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>199021117.0852893</v>
+        <v>34.15284484509573</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.827672026663533e-07</v>
+        <v>0.0001177554041522639</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>34.15284484509573</v>
+        <v>7.697589259446857</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001177554041522639</v>
+        <v>1.28473392103131</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.697589259446857</v>
+        <v>0.006977346879529898</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.28473392103131</v>
+        <v>3.179898038180148</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006977346879529898</v>
+        <v>0.9544146946494642</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.179898038180148</v>
+        <v>1.684747007224175</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9544146946494642</v>
+        <v>30</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.684747007224175</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2330087077624922</v>
       </c>
     </row>
@@ -4854,72 +4812,66 @@
         <v>3.968845385123295e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2984930178866153</v>
+        <v>1.611863184561535e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.6133366009358312</v>
+        <v>2.675422473024458e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.611863184561535e-07</v>
+        <v>-0.0529699522403593</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.675422473024458e-06</v>
+        <v>0.196656671048358</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0529699522403593</v>
+        <v>0.04147137127422031</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.196656671048358</v>
+        <v>1.787023297400239</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04147137127422031</v>
+        <v>2.009328617348364</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.737077794501845</v>
+        <v>3.709726206713436</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.009328617348364</v>
+        <v>7.812143611458926e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.709726206713436</v>
+        <v>217078579.2049416</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.812143611458926e-16</v>
+        <v>5.373297220299679e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>217078579.2049416</v>
+        <v>36.81324992202688</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.373297220299679e-07</v>
+        <v>0.0001350710330366202</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>36.81324992202688</v>
+        <v>9.118908967251567</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001350710330366202</v>
+        <v>1.261170445263354</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.118908967251567</v>
+        <v>0.01123176431835496</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.261170445263354</v>
+        <v>2.933732808122843</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01123176431835496</v>
+        <v>0.9559913061541208</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.933732808122843</v>
+        <v>1.660910444258765</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9559913061541208</v>
+        <v>30</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.660910444258765</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2287482656045119</v>
       </c>
     </row>
@@ -5296,7 +5248,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.482589516970005</v>
+        <v>1.492187818399735</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.380809774324379</v>
@@ -5385,7 +5337,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.499379201263728</v>
+        <v>1.504019977065862</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.277796869295244</v>
@@ -5474,7 +5426,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.507613945528745</v>
+        <v>1.510868386902783</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.296792360519047</v>
@@ -5563,7 +5515,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.521467198269208</v>
+        <v>1.522578355062489</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.354340659492486</v>
@@ -5652,7 +5604,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.550579475795575</v>
+        <v>1.553384019353999</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.2999367699726</v>
@@ -5741,7 +5693,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.536230665541151</v>
+        <v>1.54088067522581</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.414137934231959</v>
@@ -5830,7 +5782,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.542956768400295</v>
+        <v>1.546729672236726</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.34797040846192</v>
@@ -5919,7 +5871,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.563326819405941</v>
+        <v>1.564856725462115</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.224267630140321</v>
@@ -6008,7 +5960,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.567850571981324</v>
+        <v>1.566311342849881</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.527783686110096</v>
@@ -6097,7 +6049,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.58480494990048</v>
+        <v>1.583497527435319</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.671843434280612</v>
@@ -6186,7 +6138,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.578983088326146</v>
+        <v>1.574945235027663</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.657858015636537</v>
@@ -6275,7 +6227,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.577961339260953</v>
+        <v>1.574054559242542</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.418027875007692</v>
@@ -6364,7 +6316,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.586444538956723</v>
+        <v>1.581965522479228</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.6217865299003</v>
@@ -6453,7 +6405,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.594512582430136</v>
+        <v>1.597655995236844</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.770898082291598</v>
@@ -6542,7 +6494,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.594615668062687</v>
+        <v>1.59489977398908</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.638668652208534</v>
@@ -6631,7 +6583,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.618704595108605</v>
+        <v>1.618118505051094</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.335545373127378</v>
@@ -6720,7 +6672,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.624172186511193</v>
+        <v>1.621433717569039</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.461273000260058</v>
@@ -6809,7 +6761,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.624694812125077</v>
+        <v>1.627758053469233</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.583465523613182</v>
@@ -6898,7 +6850,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.659533231649643</v>
+        <v>1.657457943659587</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.519291138675206</v>
@@ -6987,7 +6939,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.635344122240177</v>
+        <v>1.635127956169975</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.489178280841712</v>
@@ -7076,7 +7028,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.655097635887475</v>
+        <v>1.65111246032699</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.644504255750019</v>
@@ -7165,7 +7117,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.631964375649717</v>
+        <v>1.631091716572268</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.677012945876525</v>
@@ -7254,7 +7206,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.650603615305629</v>
+        <v>1.647613132934289</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.332956952303848</v>
@@ -7343,7 +7295,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.665233429058111</v>
+        <v>1.666836425918485</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.683168536218537</v>
@@ -7432,7 +7384,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.648615334873667</v>
+        <v>1.650554336189959</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.687357611233876</v>
@@ -7521,7 +7473,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.672979758219517</v>
+        <v>1.675118197039445</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.527029974852308</v>
@@ -7610,7 +7562,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.660934137656522</v>
+        <v>1.659910250544556</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.660262280298864</v>
@@ -7699,7 +7651,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.692044914314322</v>
+        <v>1.686422436989913</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.532740511185446</v>
@@ -7788,7 +7740,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.672407672224571</v>
+        <v>1.671541772543243</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.864473639933284</v>
@@ -7877,7 +7829,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.662085870212558</v>
+        <v>1.662224059735677</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.778346883407324</v>
@@ -7966,7 +7918,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.656789836906214</v>
+        <v>1.658726891424871</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.679157116538112</v>
@@ -8055,7 +8007,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.667808498315531</v>
+        <v>1.665706670134895</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.891858830903377</v>
@@ -8144,7 +8096,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.670387543885382</v>
+        <v>1.668809684036629</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.785523882521872</v>
@@ -8233,7 +8185,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.659458872524242</v>
+        <v>1.663012653414035</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.773443998925619</v>
@@ -8322,7 +8274,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.693119908930687</v>
+        <v>1.689847261126989</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.578932560748966</v>
@@ -8411,7 +8363,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.695985939004411</v>
+        <v>1.695975367146405</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.68992025830578</v>
@@ -8500,7 +8452,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.729334314931398</v>
+        <v>1.719867361444477</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.756852525303515</v>
@@ -8589,7 +8541,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.736908602563698</v>
+        <v>1.72098155996368</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.806946666595121</v>
@@ -8678,7 +8630,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.738697708726128</v>
+        <v>1.713973138980975</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.822982864080751</v>
@@ -8767,7 +8719,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.761391363363582</v>
+        <v>1.731555674864851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.741617723783238</v>
@@ -8856,7 +8808,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.767931321033757</v>
+        <v>1.733002636412613</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.856379872707805</v>
@@ -8945,7 +8897,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.764963643829088</v>
+        <v>1.727266370217694</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.730868792845908</v>
@@ -9034,7 +8986,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.764498051771554</v>
+        <v>1.733532971579329</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.034494858742</v>
@@ -9123,7 +9075,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.795547455856807</v>
+        <v>1.76301221031821</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.290074558641586</v>
@@ -9212,7 +9164,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.803553411045786</v>
+        <v>1.767680550466083</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.639683588229786</v>
@@ -9301,7 +9253,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.806436875913963</v>
+        <v>1.767989525129855</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.351892211272485</v>
@@ -9390,7 +9342,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.765748001349271</v>
+        <v>1.733050595146066</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.863672534926771</v>
@@ -9479,7 +9431,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.766508398472246</v>
+        <v>1.732787165127217</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.663817112580537</v>
@@ -9568,7 +9520,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.77623275403375</v>
+        <v>1.734510109091548</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.81150036413509</v>
@@ -9657,7 +9609,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.754421171079241</v>
+        <v>1.714888994406587</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.030488177528528</v>
@@ -9746,7 +9698,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.743614430050635</v>
+        <v>1.711332430735976</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.829890896743578</v>
@@ -10032,7 +9984,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.412618676651903</v>
+        <v>1.411917962819078</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.614829716426036</v>
@@ -10121,7 +10073,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.420785731929381</v>
+        <v>1.417578296357244</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.57232091523096</v>
@@ -10210,7 +10162,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.414830940648552</v>
+        <v>1.411733407464764</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.574266968993707</v>
@@ -10299,7 +10251,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.394316444177419</v>
+        <v>1.387765285230746</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.357856805775282</v>
@@ -10388,7 +10340,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.368498124477913</v>
+        <v>1.358321265135204</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.518541507750123</v>
@@ -10477,7 +10429,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.380079075753687</v>
+        <v>1.368239508619656</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.508519961123862</v>
@@ -10566,7 +10518,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.368196166225367</v>
+        <v>1.351557848659136</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.553351467506565</v>
@@ -10655,7 +10607,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.364448691460985</v>
+        <v>1.346819838169693</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.487183567491643</v>
@@ -10744,7 +10696,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.373681863542638</v>
+        <v>1.353080719420881</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.361921414084301</v>
@@ -10833,7 +10785,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.383401632103967</v>
+        <v>1.363332412499898</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.20449059394235</v>
@@ -10922,7 +10874,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.382007775129681</v>
+        <v>1.358605919196866</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.454151596354703</v>
@@ -11011,7 +10963,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.391816437257138</v>
+        <v>1.368356430379765</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.480911172039202</v>
@@ -11100,7 +11052,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.400652828650453</v>
+        <v>1.376339266344907</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.284810341706543</v>
@@ -11189,7 +11141,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.4207752106987</v>
+        <v>1.394526005221093</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.355289797996833</v>
@@ -11278,7 +11230,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.424007597949881</v>
+        <v>1.397810332691989</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.505938753801837</v>
@@ -11367,7 +11319,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.427528187341032</v>
+        <v>1.402697773760346</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.485537787073895</v>
@@ -11456,7 +11408,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.436124800233839</v>
+        <v>1.411645290464956</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.378339302659346</v>
@@ -11545,7 +11497,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.442513855617505</v>
+        <v>1.418780287912426</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.420507215689896</v>
@@ -11634,7 +11586,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.450097441551326</v>
+        <v>1.422676966343291</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.19982110215899</v>
@@ -11723,7 +11675,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.491350452749671</v>
+        <v>1.467251760160397</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.276411503820337</v>
@@ -11812,7 +11764,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.514374927907063</v>
+        <v>1.48216348737754</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.397096970682026</v>
@@ -11901,7 +11853,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.504322538006724</v>
+        <v>1.475921667738539</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.620232079688173</v>
@@ -11990,7 +11942,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.505088514641506</v>
+        <v>1.47662854867161</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.242625554496907</v>
@@ -12079,7 +12031,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.505881882703231</v>
+        <v>1.480188928770956</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.494391343226724</v>
@@ -12168,7 +12120,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.520012926195111</v>
+        <v>1.486072767174294</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.462019651934993</v>
@@ -12257,7 +12209,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.515242817460485</v>
+        <v>1.489646603100536</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.338562811851371</v>
@@ -12346,7 +12298,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.484532307236199</v>
+        <v>1.463231587810062</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.547910813537098</v>
@@ -12435,7 +12387,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.495609542559178</v>
+        <v>1.475054978748209</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.48903812670537</v>
@@ -12524,7 +12476,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.487352289073115</v>
+        <v>1.46243184348685</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.454489319374749</v>
@@ -12613,7 +12565,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.4808353167621</v>
+        <v>1.458640078583796</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.477368760203829</v>
@@ -12702,7 +12654,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.462439640729621</v>
+        <v>1.441198136245296</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.455440893575197</v>
@@ -12791,7 +12743,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.455144857669017</v>
+        <v>1.430223588088006</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.571661109424239</v>
@@ -12880,7 +12832,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.460802020761563</v>
+        <v>1.433615801644084</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.2504367701308</v>
@@ -12969,7 +12921,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.469739444875414</v>
+        <v>1.444241146110691</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.587127408185131</v>
@@ -13058,7 +13010,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.466964678784817</v>
+        <v>1.438060897478586</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.71054023277652</v>
@@ -13147,7 +13099,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.462472231795099</v>
+        <v>1.439892267198289</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.289271168063868</v>
@@ -13236,7 +13188,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.471261512044783</v>
+        <v>1.450325210703666</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.595773401944542</v>
@@ -13325,7 +13277,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.489531065216604</v>
+        <v>1.469503615578343</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.600922238160134</v>
@@ -13414,7 +13366,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.496261971854179</v>
+        <v>1.475355552630594</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.608926014517342</v>
@@ -13503,7 +13455,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.50872710051256</v>
+        <v>1.486825257840852</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.535639682744248</v>
@@ -13592,7 +13544,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.511391320222607</v>
+        <v>1.491063691376031</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.646114075330486</v>
@@ -13681,7 +13633,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.520775197931604</v>
+        <v>1.500151241038173</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.697631495832306</v>
@@ -13770,7 +13722,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.517080808074674</v>
+        <v>1.503101298999813</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.872646962266279</v>
@@ -13859,7 +13811,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.531179358763996</v>
+        <v>1.51428579522867</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.535849135168814</v>
@@ -13948,7 +13900,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.52967596363388</v>
+        <v>1.515190003839488</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.865320500734891</v>
@@ -14037,7 +13989,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.557785636570156</v>
+        <v>1.545784836426312</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.518966653428793</v>
@@ -14126,7 +14078,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.550616083044384</v>
+        <v>1.545161637261725</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.849788838614</v>
@@ -14215,7 +14167,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.564090110028894</v>
+        <v>1.555783575279141</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.778111099884435</v>
@@ -14304,7 +14256,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.565012615544593</v>
+        <v>1.550941671180914</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.839538546013596</v>
@@ -14393,7 +14345,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.576944299680144</v>
+        <v>1.565542821848762</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.608980351400436</v>
@@ -14482,7 +14434,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.57098193248792</v>
+        <v>1.560070494720167</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.682727100773006</v>
@@ -14768,7 +14720,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.631163971512932</v>
+        <v>1.600478513213955</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.742678501804164</v>
@@ -14857,7 +14809,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.636026117973211</v>
+        <v>1.594997659105502</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.815141651219119</v>
@@ -14946,7 +14898,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.638229908246506</v>
+        <v>1.594676645411956</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.730040898222144</v>
@@ -15035,7 +14987,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.641547223123994</v>
+        <v>1.593121420601069</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.712695604952896</v>
@@ -15124,7 +15076,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.644969308442134</v>
+        <v>1.594138957582902</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.646146584888031</v>
@@ -15213,7 +15165,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.63735830169183</v>
+        <v>1.586999237837065</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.759337968168669</v>
@@ -15302,7 +15254,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.640062135277258</v>
+        <v>1.587061933082498</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.680967879475969</v>
@@ -15391,7 +15343,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.671705595456177</v>
+        <v>1.609612569603054</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.451735914855868</v>
@@ -15480,7 +15432,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.694224455295595</v>
+        <v>1.62391199303098</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.733810719355578</v>
@@ -15569,7 +15521,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.692480289546596</v>
+        <v>1.620134663927286</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.285903614100053</v>
@@ -15658,7 +15610,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.68484333409685</v>
+        <v>1.611655624501</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.072185181517149</v>
@@ -15747,7 +15699,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.679781141999047</v>
+        <v>1.605555638203289</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.270768545851428</v>
@@ -15836,7 +15788,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.682026816774227</v>
+        <v>1.613321023174999</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.168833990426722</v>
@@ -15925,7 +15877,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.685168351346107</v>
+        <v>1.613951836811378</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.823584032624197</v>
@@ -16014,7 +15966,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.691524690669001</v>
+        <v>1.619533603315016</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.276940427530928</v>
@@ -16103,7 +16055,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.693572807054622</v>
+        <v>1.619782502737998</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.708090188640973</v>
@@ -16192,7 +16144,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.700861608760206</v>
+        <v>1.626289473579444</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.224094425623348</v>
@@ -16281,7 +16233,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.7022305091075</v>
+        <v>1.632961633321079</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.349260478088996</v>
@@ -16370,7 +16322,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.710654923519684</v>
+        <v>1.641414624055828</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.221314252016009</v>
@@ -16459,7 +16411,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.707114363929938</v>
+        <v>1.645926640994922</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.081375446392186</v>
@@ -16548,7 +16500,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.722683951283894</v>
+        <v>1.658586850474054</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.337800111474987</v>
@@ -16637,7 +16589,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.716204121591493</v>
+        <v>1.64842033520807</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.068878969903597</v>
@@ -16726,7 +16678,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.722507509730414</v>
+        <v>1.65246615744186</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.633191739766104</v>
@@ -16815,7 +16767,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.731205502897763</v>
+        <v>1.661071653257618</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.041145882282499</v>
@@ -16904,7 +16856,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.743092017208244</v>
+        <v>1.676520267708119</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.128128107861877</v>
@@ -16993,7 +16945,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.750713114289958</v>
+        <v>1.677781776931976</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.326980777097062</v>
@@ -17082,7 +17034,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.747947775625002</v>
+        <v>1.674575779427935</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.204062158377119</v>
@@ -17171,7 +17123,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.762162611255331</v>
+        <v>1.680685792376579</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.415395688737644</v>
@@ -17260,7 +17212,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.75932338148399</v>
+        <v>1.686911532152569</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.32204602659241</v>
@@ -17349,7 +17301,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.749010490880763</v>
+        <v>1.679756414091283</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.248769245651011</v>
@@ -17438,7 +17390,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.749100447821861</v>
+        <v>1.678229913482087</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.456835137985806</v>
@@ -17527,7 +17479,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.755447722200652</v>
+        <v>1.677192102364071</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.060377555307966</v>
@@ -17616,7 +17568,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.760164129264102</v>
+        <v>1.684456258934514</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.550858063207287</v>
@@ -17705,7 +17657,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.757757445705916</v>
+        <v>1.68540635077295</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.385748161924399</v>
@@ -17794,7 +17746,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.770175105794457</v>
+        <v>1.688714948642407</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.65611370441545</v>
@@ -17883,7 +17835,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.774505602466225</v>
+        <v>1.697541869294446</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.764414396110116</v>
@@ -17972,7 +17924,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.781927205687892</v>
+        <v>1.697806418575055</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.575699550699345</v>
@@ -18061,7 +18013,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.77912359230627</v>
+        <v>1.695318700055067</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.616849780591893</v>
@@ -18150,7 +18102,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.777223062818893</v>
+        <v>1.689111086663546</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.794197391751712</v>
@@ -18239,7 +18191,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.78436462953902</v>
+        <v>1.694106976292672</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.429098729814044</v>
@@ -18328,7 +18280,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.786665055571842</v>
+        <v>1.693899790623032</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.553836195898674</v>
@@ -18417,7 +18369,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.792355740788333</v>
+        <v>1.700194979695778</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.537517864825686</v>
@@ -18506,7 +18458,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.793447933350119</v>
+        <v>1.707095442906114</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.144668358300643</v>
@@ -18595,7 +18547,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.79304884965388</v>
+        <v>1.706688395962762</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.869844223786037</v>
@@ -18684,7 +18636,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.7958959316415</v>
+        <v>1.710033916482651</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.675179360950714</v>
@@ -18773,7 +18725,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.795269727187343</v>
+        <v>1.706689398584446</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.4243627363727</v>
@@ -18862,7 +18814,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.774268822707824</v>
+        <v>1.696774428160649</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.352576736257917</v>
@@ -18951,7 +18903,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.768362681545875</v>
+        <v>1.685543447306372</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.269440152834537</v>
@@ -19040,7 +18992,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.770860048826139</v>
+        <v>1.687550258811412</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.375630541950252</v>
@@ -19129,7 +19081,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.764143264487747</v>
+        <v>1.689256842837968</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.175005082792712</v>
@@ -19218,7 +19170,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.752026371057543</v>
+        <v>1.681927422979563</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.21454080527194</v>
@@ -19504,7 +19456,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.758362039917415</v>
+        <v>1.714963612164719</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.523118171087784</v>
@@ -19593,7 +19545,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.77421645102191</v>
+        <v>1.725558210248823</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.394475422307349</v>
@@ -19682,7 +19634,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.780589935959058</v>
+        <v>1.726889469998833</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.874285227960213</v>
@@ -19771,7 +19723,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.769310958806782</v>
+        <v>1.71414523845647</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.900463478122706</v>
@@ -19860,7 +19812,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.76661112821735</v>
+        <v>1.712954565691456</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.748774720705481</v>
@@ -19949,7 +19901,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.77233535733567</v>
+        <v>1.714440330414492</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.849530482484845</v>
@@ -20038,7 +19990,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.785160295918777</v>
+        <v>1.729034530329974</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.034638786157003</v>
@@ -20127,7 +20079,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.793916198949432</v>
+        <v>1.733552958478637</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.540263267845115</v>
@@ -20216,7 +20168,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.794884149484431</v>
+        <v>1.729183503246102</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.672283302173484</v>
@@ -20305,7 +20257,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.779684291038633</v>
+        <v>1.714238771218045</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.565622267650745</v>
@@ -20394,7 +20346,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.77402223537518</v>
+        <v>1.706742391415749</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.544644876608058</v>
@@ -20483,7 +20435,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.77267645420938</v>
+        <v>1.709020228707993</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.464406032267047</v>
@@ -20572,7 +20524,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.776416422769518</v>
+        <v>1.722788217064287</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.033170934927565</v>
@@ -20661,7 +20613,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.770477500895022</v>
+        <v>1.712177024448819</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.318961414373547</v>
@@ -20750,7 +20702,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.765853345742146</v>
+        <v>1.702276529767591</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.31548707496713</v>
@@ -20839,7 +20791,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.772789153166878</v>
+        <v>1.709958520361285</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.973444207454074</v>
@@ -20928,7 +20880,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.771923546494153</v>
+        <v>1.708983273220057</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.657741694852773</v>
@@ -21017,7 +20969,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.768513972866658</v>
+        <v>1.711893362468158</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.534070001195486</v>
@@ -21106,7 +21058,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.769232718348408</v>
+        <v>1.717239482221423</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.226604612293739</v>
@@ -21195,7 +21147,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.769954085338005</v>
+        <v>1.720841412924387</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.392527725295871</v>
@@ -21284,7 +21236,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.773884131054432</v>
+        <v>1.725211823251993</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.281220418589176</v>
@@ -21373,7 +21325,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.767749715092734</v>
+        <v>1.714919678745137</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.515584747943328</v>
@@ -21462,7 +21414,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.771854008144702</v>
+        <v>1.719725134996661</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.079856043267507</v>
@@ -21551,7 +21503,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.772538366456222</v>
+        <v>1.722668749291983</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.653937042385717</v>
@@ -21640,7 +21592,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.787981298335318</v>
+        <v>1.738143589064142</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.065314737264925</v>
@@ -21729,7 +21681,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.793365287975508</v>
+        <v>1.743151399982585</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.999686745007377</v>
@@ -21818,7 +21770,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.788399502421408</v>
+        <v>1.740826698890772</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.127443694255166</v>
@@ -21907,7 +21859,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.786603195056737</v>
+        <v>1.733688043189022</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.165875629683575</v>
@@ -21996,7 +21948,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.789571356767861</v>
+        <v>1.741811659177035</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.462661756338925</v>
@@ -22085,7 +22037,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.785614683702341</v>
+        <v>1.749053877020984</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.916272944788909</v>
@@ -22174,7 +22126,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.776002057297752</v>
+        <v>1.737127779861825</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.69722271629233</v>
@@ -22263,7 +22215,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.775749624346137</v>
+        <v>1.736433980016269</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.833689569100664</v>
@@ -22352,7 +22304,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.781570548341501</v>
+        <v>1.737817236623477</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.613793772436229</v>
@@ -22441,7 +22393,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.787029371897804</v>
+        <v>1.74299881525386</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.885807283653414</v>
@@ -22530,7 +22482,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.790818071571866</v>
+        <v>1.744534916322925</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.919197332338257</v>
@@ -22619,7 +22571,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.794758563406259</v>
+        <v>1.747833233658513</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.688754833730823</v>
@@ -22708,7 +22660,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.799824769144408</v>
+        <v>1.751350179676197</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.851876307926712</v>
@@ -22797,7 +22749,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.799411407883304</v>
+        <v>1.743943232615864</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.507104031969039</v>
@@ -22886,7 +22838,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.795257574083537</v>
+        <v>1.734365617657339</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.861077628715967</v>
@@ -22975,7 +22927,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.799470609171697</v>
+        <v>1.739092538728851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.306662268018062</v>
@@ -23064,7 +23016,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.802881011822186</v>
+        <v>1.740514827549811</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.616379693800214</v>
@@ -23153,7 +23105,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.811108889399498</v>
+        <v>1.747440973740977</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.618962446960891</v>
@@ -23242,7 +23194,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.810717968286503</v>
+        <v>1.74371309118094</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.042852342805808</v>
@@ -23331,7 +23283,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.800503891334856</v>
+        <v>1.738402231127934</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.576146185621684</v>
@@ -23420,7 +23372,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.807452647313128</v>
+        <v>1.739601654478174</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.976149653097943</v>
@@ -23509,7 +23461,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.8145406849415</v>
+        <v>1.748753326539394</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.272232294118851</v>
@@ -23598,7 +23550,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.812061248113107</v>
+        <v>1.749743566680288</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.258038527734688</v>
@@ -23687,7 +23639,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.81541875326437</v>
+        <v>1.756130208769798</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.816973944319389</v>
@@ -23776,7 +23728,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.822947513758218</v>
+        <v>1.756731665221739</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.114389990782018</v>
@@ -23865,7 +23817,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.824950556058751</v>
+        <v>1.759751647798639</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.962685771317707</v>
@@ -23954,7 +23906,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.813021067348164</v>
+        <v>1.751692054259272</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.649167558088386</v>
@@ -24240,7 +24192,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.46110336264115</v>
+        <v>1.461916915978894</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.737448983473159</v>
@@ -24329,7 +24281,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.468234285906377</v>
+        <v>1.468379315467659</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.537066014880685</v>
@@ -24418,7 +24370,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.468466915632228</v>
+        <v>1.464924725105582</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.627231218505317</v>
@@ -24507,7 +24459,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.454240046117537</v>
+        <v>1.443790297281666</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.454864985389052</v>
@@ -24596,7 +24548,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.440628094936516</v>
+        <v>1.433408396911484</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.598490338705004</v>
@@ -24685,7 +24637,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.434363842408028</v>
+        <v>1.430414348469035</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.771721311750958</v>
@@ -24774,7 +24726,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.431756312959592</v>
+        <v>1.423255117237943</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.585029646257217</v>
@@ -24863,7 +24815,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.411736082015586</v>
+        <v>1.400520746216058</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.714892627343878</v>
@@ -24952,7 +24904,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.399976447083378</v>
+        <v>1.386399613905535</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.737001682123532</v>
@@ -25041,7 +24993,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.396506146224408</v>
+        <v>1.383286398349855</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.55243180077552</v>
@@ -25130,7 +25082,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.394302407033685</v>
+        <v>1.375646742957842</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.504837465214796</v>
@@ -25219,7 +25171,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.395708539070875</v>
+        <v>1.377571773557335</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.482413497394997</v>
@@ -25308,7 +25260,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.3958379135236</v>
+        <v>1.380485840710638</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.600365533874125</v>
@@ -25397,7 +25349,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.401696004579464</v>
+        <v>1.384636500754594</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.519299400380008</v>
@@ -25486,7 +25438,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.402864838399221</v>
+        <v>1.379324320970861</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.630246130400272</v>
@@ -25575,7 +25527,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40147382179228</v>
+        <v>1.381430371490603</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.513279582687983</v>
@@ -25664,7 +25616,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.404728624715828</v>
+        <v>1.382180019859847</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.658533578218822</v>
@@ -25753,7 +25705,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.407418950152686</v>
+        <v>1.387813833340088</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.422868288455227</v>
@@ -25842,7 +25794,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.408014993461684</v>
+        <v>1.396658510417425</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.68795240466899</v>
@@ -25931,7 +25883,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.409590317366567</v>
+        <v>1.400513050981775</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.705655729168141</v>
@@ -26020,7 +25972,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.422768355090684</v>
+        <v>1.407443705990523</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.794383179975396</v>
@@ -26109,7 +26061,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.421064810299032</v>
+        <v>1.405274945207382</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.775593592829134</v>
@@ -26198,7 +26150,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.428238624627394</v>
+        <v>1.409662803780087</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.573794468955493</v>
@@ -26287,7 +26239,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.438509770691889</v>
+        <v>1.419310443609159</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.862489233730221</v>
@@ -26376,7 +26328,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.447822581061273</v>
+        <v>1.424370757756964</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.678807877234709</v>
@@ -26465,7 +26417,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.435640023283813</v>
+        <v>1.420012115209611</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.513038597801575</v>
@@ -26554,7 +26506,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.433067618900451</v>
+        <v>1.414796866879192</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.583832749831986</v>
@@ -26643,7 +26595,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.430136973405095</v>
+        <v>1.413148640131672</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.513572989567046</v>
@@ -26732,7 +26684,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.426435742806184</v>
+        <v>1.405537154853684</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.580881135194772</v>
@@ -26821,7 +26773,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.410278911971134</v>
+        <v>1.403968963705523</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.621430430701806</v>
@@ -26910,7 +26862,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.395370129255986</v>
+        <v>1.38805812900978</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.468857342816485</v>
@@ -26999,7 +26951,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.38346734840657</v>
+        <v>1.378544496984283</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.329067152883057</v>
@@ -27088,7 +27040,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.387288110622433</v>
+        <v>1.380132481206177</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.128353010804938</v>
@@ -27177,7 +27129,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.394034707030634</v>
+        <v>1.386123690529576</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.374970426443595</v>
@@ -27266,7 +27218,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.406233772657249</v>
+        <v>1.396346134100042</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.458086859634991</v>
@@ -27355,7 +27307,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.405090365884156</v>
+        <v>1.397534419049403</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.384699846157575</v>
@@ -27444,7 +27396,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.415779794947826</v>
+        <v>1.412058991809587</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.46981444532535</v>
@@ -27533,7 +27485,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.428760803242883</v>
+        <v>1.423299114729313</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.468941045502294</v>
@@ -27622,7 +27574,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.426814523130321</v>
+        <v>1.424926443340077</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.497198197972713</v>
@@ -27711,7 +27663,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.425747248786748</v>
+        <v>1.426864962239143</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.366883025845018</v>
@@ -27800,7 +27752,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.432320233899703</v>
+        <v>1.433797576855996</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.392706851658519</v>
@@ -27889,7 +27841,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.444653100022961</v>
+        <v>1.448197035724841</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.341708842202241</v>
@@ -27978,7 +27930,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.463324232685771</v>
+        <v>1.467123703336043</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.413244375483927</v>
@@ -28067,7 +28019,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.472223076922511</v>
+        <v>1.470875770387317</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.47278876748002</v>
@@ -28156,7 +28108,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.474838231671348</v>
+        <v>1.475007318375738</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.351029513933772</v>
@@ -28245,7 +28197,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.510190919697586</v>
+        <v>1.506745139388068</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.556206558471766</v>
@@ -28334,7 +28286,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.523778367147928</v>
+        <v>1.518585691696722</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.793532874153855</v>
@@ -28423,7 +28375,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.529601569235198</v>
+        <v>1.524308908974783</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.978690555833082</v>
@@ -28512,7 +28464,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.506017884619296</v>
+        <v>1.500918088549369</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.767262665961819</v>
@@ -28601,7 +28553,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.513792436836307</v>
+        <v>1.508243445336385</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.436889957187578</v>
@@ -28690,7 +28642,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.531014733480142</v>
+        <v>1.525338270555926</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.709236431018703</v>
@@ -28976,7 +28928,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.737418839166006</v>
+        <v>1.75904371257791</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.372919556284485</v>
@@ -29065,7 +29017,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.755047456156179</v>
+        <v>1.771305160451259</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.852496007804671</v>
@@ -29154,7 +29106,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.756605113393049</v>
+        <v>1.767446156005678</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.304901269553358</v>
@@ -29243,7 +29195,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.757373589160411</v>
+        <v>1.766786169184623</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.18627376129458</v>
@@ -29332,7 +29284,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.765255249320705</v>
+        <v>1.77396200182075</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.320002940197506</v>
@@ -29421,7 +29373,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.750139012515861</v>
+        <v>1.763550378542245</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.441411129863253</v>
@@ -29510,7 +29462,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.754080265345826</v>
+        <v>1.773424228404515</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.32955701081928</v>
@@ -29599,7 +29551,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.762639245530659</v>
+        <v>1.779761925723322</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.962736351610246</v>
@@ -29688,7 +29640,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.767110582416303</v>
+        <v>1.781618362122677</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.151118717037472</v>
@@ -29777,7 +29729,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.765752487478931</v>
+        <v>1.779838343546829</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.004111863879029</v>
@@ -29866,7 +29818,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.756483380474024</v>
+        <v>1.769428973819916</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.366142580037053</v>
@@ -29955,7 +29907,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.752987212261551</v>
+        <v>1.768646306621435</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.932446458027694</v>
@@ -30044,7 +29996,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.751606495837424</v>
+        <v>1.760852323956796</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.053489912902347</v>
@@ -30133,7 +30085,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.749781484203125</v>
+        <v>1.764046386697377</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.186176784806135</v>
@@ -30222,7 +30174,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.756588185238023</v>
+        <v>1.771212690797184</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.267075895964469</v>
@@ -30311,7 +30263,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.779527537353927</v>
+        <v>1.79264415778866</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.76094081764592</v>
@@ -30400,7 +30352,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.783243242378996</v>
+        <v>1.798359829709786</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.940697132157158</v>
@@ -30489,7 +30441,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.788360039849316</v>
+        <v>1.809448925342228</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.328673744040522</v>
@@ -30578,7 +30530,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.81476432586324</v>
+        <v>1.827890683898612</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.686891696523956</v>
@@ -30667,7 +30619,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.815305990077243</v>
+        <v>1.825299739034784</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.964247461344506</v>
@@ -30756,7 +30708,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.827917826143508</v>
+        <v>1.836856442104875</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.219284586245694</v>
@@ -30845,7 +30797,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.801414513160552</v>
+        <v>1.811098900812637</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.498474771462859</v>
@@ -30934,7 +30886,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.817330184754837</v>
+        <v>1.829515544133942</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.974021805959972</v>
@@ -31023,7 +30975,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.827069807861526</v>
+        <v>1.843183503362701</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.095151710532963</v>
@@ -31112,7 +31064,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.823319088839238</v>
+        <v>1.841355899805182</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.269896414363167</v>
@@ -31201,7 +31153,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.841303700084422</v>
+        <v>1.855689247429723</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.889069006519927</v>
@@ -31290,7 +31242,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.836378460509652</v>
+        <v>1.852721398443393</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.33917143771564</v>
@@ -31379,7 +31331,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.860322717510137</v>
+        <v>1.876319231552816</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.099278671920275</v>
@@ -31468,7 +31420,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.852331987764147</v>
+        <v>1.872584691348482</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.35077068614624</v>
@@ -31557,7 +31509,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.835988882041032</v>
+        <v>1.859477178597043</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.783415782314759</v>
@@ -31646,7 +31598,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.818408855323581</v>
+        <v>1.838103008020541</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.598127079602411</v>
@@ -31735,7 +31687,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.824539881845017</v>
+        <v>1.842807131921989</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.477961802962734</v>
@@ -31824,7 +31776,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.829008594982872</v>
+        <v>1.838545012009359</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.108550796937548</v>
@@ -31913,7 +31865,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.82321891467345</v>
+        <v>1.834152984301286</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.344355190344142</v>
@@ -32002,7 +31954,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.836468184042533</v>
+        <v>1.844771910414676</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.213655364809286</v>
@@ -32091,7 +32043,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.84006862812474</v>
+        <v>1.844975766933125</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.874011516285298</v>
@@ -32180,7 +32132,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.862970455833426</v>
+        <v>1.857595423335204</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.772440162414443</v>
@@ -32269,7 +32221,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.85300720746037</v>
+        <v>1.834356502647077</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.416251209576257</v>
@@ -32358,7 +32310,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.845644045680745</v>
+        <v>1.815448039470746</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.806846435853637</v>
@@ -32447,7 +32399,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.859850540479113</v>
+        <v>1.825257314396372</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.767219561554278</v>
@@ -32536,7 +32488,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.859769535532473</v>
+        <v>1.822827548760942</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.326783176372845</v>
@@ -32625,7 +32577,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.858910702614251</v>
+        <v>1.817448736360239</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.687571162347469</v>
@@ -32714,7 +32666,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.852408384286645</v>
+        <v>1.805753673156199</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.423156569526959</v>
@@ -32803,7 +32755,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.859848396741007</v>
+        <v>1.807626020652972</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.833732049333074</v>
@@ -32892,7 +32844,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.867402656084685</v>
+        <v>1.803118441123586</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.317257206697453</v>
@@ -32981,7 +32933,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.881754894526884</v>
+        <v>1.811574853783092</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.598783307762123</v>
@@ -33070,7 +33022,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.865820564054596</v>
+        <v>1.798204437262667</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.245546671887839</v>
@@ -33159,7 +33111,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.866837191115551</v>
+        <v>1.808875920977316</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.49540502894538</v>
@@ -33248,7 +33200,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.872185991945163</v>
+        <v>1.817077604033401</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.809328633704129</v>
@@ -33337,7 +33289,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.863291019590055</v>
+        <v>1.811837760651947</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.895209989021955</v>
@@ -33426,7 +33378,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.854614438218649</v>
+        <v>1.80739758977279</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.3075833620528</v>
